--- a/FitnessData/dynamic9/pso/analysis_2s.xlsx
+++ b/FitnessData/dynamic9/pso/analysis_2s.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101.76</v>
+        <v>104.71</v>
       </c>
       <c r="B2" t="n">
-        <v>101.94</v>
+        <v>116.75</v>
       </c>
       <c r="C2" t="n">
-        <v>101.29</v>
+        <v>111.74</v>
       </c>
       <c r="D2" t="n">
-        <v>108.99</v>
+        <v>91.97</v>
       </c>
       <c r="E2" t="n">
-        <v>120.58</v>
+        <v>101.43</v>
       </c>
       <c r="F2" t="n">
-        <v>113.16</v>
+        <v>94.91</v>
       </c>
       <c r="G2" t="n">
-        <v>125.23</v>
+        <v>122.15</v>
       </c>
       <c r="H2" t="n">
-        <v>117.5</v>
+        <v>117.64</v>
       </c>
       <c r="I2" t="n">
-        <v>117.33</v>
+        <v>104.42</v>
       </c>
       <c r="J2" t="n">
-        <v>95.06999999999999</v>
+        <v>107.56</v>
       </c>
       <c r="K2" t="n">
-        <v>109.9</v>
+        <v>101.32</v>
       </c>
       <c r="L2" t="n">
-        <v>104.25</v>
+        <v>120.31</v>
       </c>
       <c r="M2" t="n">
-        <v>110.83</v>
+        <v>109.85</v>
       </c>
       <c r="N2" t="n">
-        <v>106.59</v>
+        <v>111.73</v>
       </c>
       <c r="O2" t="n">
-        <v>118.38</v>
+        <v>102.76</v>
       </c>
       <c r="P2" t="n">
-        <v>119.6</v>
+        <v>103.47</v>
       </c>
       <c r="Q2" t="n">
-        <v>112.48</v>
+        <v>121.97</v>
       </c>
       <c r="R2" t="n">
-        <v>105.48</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>115</v>
+        <v>99.42</v>
       </c>
       <c r="T2" t="n">
-        <v>103.4</v>
+        <v>112.8</v>
       </c>
       <c r="U2" t="n">
-        <v>95.06999999999999</v>
+        <v>91.97</v>
       </c>
       <c r="V2" t="n">
-        <v>110.438</v>
+        <v>107.6755</v>
       </c>
       <c r="W2" t="n">
-        <v>7.932550927067932</v>
+        <v>9.061642394993132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>197.16</v>
+        <v>153.8</v>
       </c>
       <c r="B3" t="n">
-        <v>190.28</v>
+        <v>169.62</v>
       </c>
       <c r="C3" t="n">
-        <v>180.2</v>
+        <v>183.86</v>
       </c>
       <c r="D3" t="n">
-        <v>175.76</v>
+        <v>180.76</v>
       </c>
       <c r="E3" t="n">
-        <v>175.48</v>
+        <v>207.66</v>
       </c>
       <c r="F3" t="n">
-        <v>202.02</v>
+        <v>180.7</v>
       </c>
       <c r="G3" t="n">
-        <v>207.26</v>
+        <v>162.26</v>
       </c>
       <c r="H3" t="n">
         <v>181.42</v>
       </c>
       <c r="I3" t="n">
-        <v>171.4</v>
+        <v>153.92</v>
       </c>
       <c r="J3" t="n">
-        <v>210.42</v>
+        <v>152.36</v>
       </c>
       <c r="K3" t="n">
-        <v>176.26</v>
+        <v>179.1</v>
       </c>
       <c r="L3" t="n">
-        <v>190.1</v>
+        <v>181.14</v>
       </c>
       <c r="M3" t="n">
-        <v>195.32</v>
+        <v>153.58</v>
       </c>
       <c r="N3" t="n">
-        <v>174.1</v>
+        <v>170.62</v>
       </c>
       <c r="O3" t="n">
-        <v>211.22</v>
+        <v>170.84</v>
       </c>
       <c r="P3" t="n">
-        <v>176.16</v>
+        <v>154.78</v>
       </c>
       <c r="Q3" t="n">
-        <v>177.96</v>
+        <v>151.5</v>
       </c>
       <c r="R3" t="n">
-        <v>181.62</v>
+        <v>180.38</v>
       </c>
       <c r="S3" t="n">
-        <v>169.2</v>
+        <v>148.52</v>
       </c>
       <c r="T3" t="n">
-        <v>159.88</v>
+        <v>183.34</v>
       </c>
       <c r="U3" t="n">
-        <v>159.88</v>
+        <v>148.52</v>
       </c>
       <c r="V3" t="n">
-        <v>185.161</v>
+        <v>170.008</v>
       </c>
       <c r="W3" t="n">
-        <v>14.57900216786205</v>
+        <v>15.66405660975739</v>
       </c>
     </row>
   </sheetData>
